--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,28 @@
           <t>Role</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ayushi123</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>pokemon@123</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,40 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>neil</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>farmer</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>Password</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -466,6 +471,7 @@
           <t>pokemon@123</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -483,6 +489,7 @@
           <t>1234</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -498,6 +505,47 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>admin</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sharma</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>farmer</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>sharma</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1234567890</t>
         </is>
       </c>
     </row>

--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,46 +509,6 @@
       </c>
       <c r="D4" t="inlineStr"/>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>sharma</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>farmer</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>sharma</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1234567890</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -61,7 +61,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -426,7 +426,7 @@
     <col min="4" max="4" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
